--- a/더미데이터test/testProduct.xlsx
+++ b/더미데이터test/testProduct.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIT-303\Desktop\gitDirectory\KDTProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIT-303\Desktop\gitDirectory\KDTProject\더미데이터test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="11310" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -23,10 +23,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
-    <x:t>전동킥보드</x:t>
+    <x:t>상품명</x:t>
   </x:si>
   <x:si>
-    <x:t>상품명</x:t>
+    <x:t>전동킥보드</x:t>
   </x:si>
   <x:si>
     <x:t>전기자전거A</x:t>
@@ -42,7 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="8">
+  <x:fonts count="7">
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
@@ -71,11 +71,6 @@
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
     <x:font>
@@ -120,7 +115,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -133,6 +128,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -215,6 +211,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -249,6 +246,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -293,6 +291,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -336,6 +335,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -420,6 +420,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -440,6 +441,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -470,6 +472,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -780,7 +783,7 @@
   <x:dimension ref="A1:B5"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B9" activeCellId="0" sqref="B9:B9"/>
+      <x:selection activeCell="B7" activeCellId="0" sqref="B7:B7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
@@ -793,7 +796,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:2" ht="16.39999999999999857891">
@@ -804,7 +807,7 @@
     <x:row r="3" spans="1:2" ht="16.39999999999999857891">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:2" ht="16.39999999999999857891">

--- a/더미데이터test/testProduct.xlsx
+++ b/더미데이터test/testProduct.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="11310" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,12 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <x:si>
     <x:t>상품명</x:t>
   </x:si>
   <x:si>
     <x:t>전동킥보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거B</x:t>
   </x:si>
   <x:si>
     <x:t>전기자전거A</x:t>
@@ -35,7 +38,7 @@
     <x:t>상품코드</x:t>
   </x:si>
   <x:si>
-    <x:t>전기자전거B</x:t>
+    <x:t>WDWDW</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -43,36 +46,126 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fonts count="7">
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -783,7 +876,7 @@
   <x:dimension ref="A1:B5"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B7" activeCellId="0" sqref="B7:B7"/>
+      <x:selection activeCell="A4" activeCellId="0" sqref="A4:A4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
@@ -793,26 +886,34 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="2:2" ht="16.39999999999999857891">
+    <x:row r="2" spans="1:2" ht="16.39999999999999857891">
+      <x:c r="A2" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="16.39999999999999857891">
-      <x:c r="A3" s="1"/>
+      <x:c r="A3" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="2:2" ht="16.39999999999999857891">
+    <x:row r="4" spans="1:2" ht="16.39999999999999857891">
+      <x:c r="A4" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">

--- a/더미데이터test/testProduct.xlsx
+++ b/더미데이터test/testProduct.xlsx
@@ -13,15 +13,13 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <x:sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <x:sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <x:si>
     <x:t>상품명</x:t>
   </x:si>
@@ -29,16 +27,10 @@
     <x:t>전동킥보드</x:t>
   </x:si>
   <x:si>
-    <x:t>전기자전거B</x:t>
-  </x:si>
-  <x:si>
     <x:t>전기자전거A</x:t>
   </x:si>
   <x:si>
-    <x:t>상품코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WDWDW</x:t>
+    <x:t>전기자전거B</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -46,128 +38,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fonts count="7">
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
@@ -196,24 +98,28 @@
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
+  <x:cellStyles count="2">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0" iLevel="0"/>
+    <x:cellStyle name="표준" xfId="1" builtinId="0"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -629,28 +535,28 @@
         <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1c3d62"/>
+        <a:srgbClr val="3a3c84"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e3dcc1"/>
+        <a:srgbClr val="faf3db"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="315f97"/>
+        <a:srgbClr val="6182d6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c75252"/>
+        <a:srgbClr val="ff843a"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="e9ae2b"/>
+        <a:srgbClr val="b2b2b2"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="699b37"/>
+        <a:srgbClr val="ffd700"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="358791"/>
+        <a:srgbClr val="289b6e"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="ca56a7"/>
+        <a:srgbClr val="9d5cbb"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000ff"/>
@@ -873,86 +779,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:B5"/>
+  <x:dimension ref="A1:A4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A4" activeCellId="0" sqref="A4:A4"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A4"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
-  <x:cols>
-    <x:col min="1" max="1" width="20" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
-      <x:c r="A1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B1" t="s">
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" ht="16.39999999999999857891">
-      <x:c r="A2" t="s">
-        <x:v>5</x:v>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="2" t="s">
+        <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2" ht="16.39999999999999857891">
-      <x:c r="A3" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2" ht="16.39999999999999857891">
-      <x:c r="A4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1">
-      <x:c r="A5" s="1"/>
-    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet3"/>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>